--- a/2015136125_조완제_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/2015136125_조완제_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -89,14 +89,6 @@
   </si>
   <si>
     <t>브레드보드 WBU-301</t>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/1312757</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조이스틱 쉴드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.eleparts.co.kr/EPXDYVCA</t>
@@ -186,6 +178,13 @@
   <si>
     <t>재료실에서 빌리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEAD Joystick shield [IM120417014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1076924</t>
   </si>
 </sst>
 </file>
@@ -381,6 +380,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,15 +396,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,61 +421,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2148840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1691639</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="_x284127728" descr="EMB00004ab8157a"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7399020" y="3131820"/>
-          <a:ext cx="1927860" cy="1508759"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -495,7 +439,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -550,7 +494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -605,7 +549,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -660,7 +604,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -715,7 +659,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -770,7 +714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -786,6 +730,61 @@
         <a:xfrm>
           <a:off x="7368540" y="9121140"/>
           <a:ext cx="2095500" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2321560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1706879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="default_image" descr="http://www.devicemart.co.kr/skin/fogoods/large/1076924.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7322820" y="3023234"/>
+          <a:ext cx="2176780" cy="1632585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1087,66 +1086,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="13">
         <v>2015136125</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -1188,7 +1187,7 @@
         <v>9700</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1196,21 +1195,20 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
-        <v>32000</v>
+        <v>7200</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>32000</v>
+        <v>7200</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
@@ -1229,7 +1227,7 @@
         <v>5500</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.4">
@@ -1237,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
         <v>2500</v>
@@ -1249,7 +1247,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.4">
@@ -1257,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <v>2500</v>
@@ -1269,15 +1267,15 @@
         <v>2500</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>28</v>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>450</v>
@@ -1289,15 +1287,15 @@
         <v>900</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>29</v>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>720</v>
@@ -1309,7 +1307,7 @@
         <v>1440</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1317,10 +1315,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1356,7 +1354,7 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>54540</v>
       </c>
       <c r="F17" s="2"/>
@@ -1372,14 +1370,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F9" r:id="rId3"/>
-    <hyperlink ref="F10" r:id="rId4"/>
-    <hyperlink ref="F11" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId3"/>
+    <hyperlink ref="F11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/2015136125_조완제_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/2015136125_조완제_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -88,14 +88,7 @@
     <t>1.3inch OLED (B)</t>
   </si>
   <si>
-    <t>브레드보드 WBU-301</t>
-  </si>
-  <si>
     <t>http://www.eleparts.co.kr/EPXDYVCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/13700</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,6 +178,13 @@
   </si>
   <si>
     <t>http://www.devicemart.co.kr/1076924</t>
+  </si>
+  <si>
+    <t>투명 브레드보드 [ELB-80T]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eleparts.co.kr/EPX34N7P</t>
   </si>
 </sst>
 </file>
@@ -421,61 +421,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2240280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1295400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="_x284127168" descr="EMB00004ab81580"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7360920" y="4846320"/>
-          <a:ext cx="2057400" cy="1173480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -494,7 +439,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -549,7 +494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -604,7 +549,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -659,7 +604,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -714,7 +659,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -769,7 +714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -785,6 +730,61 @@
         <a:xfrm>
           <a:off x="7322820" y="3023234"/>
           <a:ext cx="2176780" cy="1632585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2255520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="_x305171024" descr="EMB000017c421c0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7498080" y="4846320"/>
+          <a:ext cx="1935480" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1187,7 +1187,7 @@
         <v>9700</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
         <v>7200</v>
@@ -1207,7 +1207,7 @@
         <v>7200</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.4">
@@ -1215,19 +1215,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.4">
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>2500</v>
@@ -1247,7 +1247,7 @@
         <v>2500</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.4">
@@ -1255,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
         <v>2500</v>
@@ -1267,7 +1267,7 @@
         <v>2500</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -1275,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>450</v>
@@ -1287,7 +1287,7 @@
         <v>900</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1295,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>720</v>
@@ -1307,7 +1307,7 @@
         <v>1440</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1315,10 +1315,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="12">
-        <v>54540</v>
+        <v>21740</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1371,12 +1371,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="F10" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>